--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Mif-Cxcr4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Mif-Cxcr4.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>15.036225</v>
+        <v>18.629453</v>
       </c>
       <c r="H2">
-        <v>45.10867500000001</v>
+        <v>55.888359</v>
       </c>
       <c r="I2">
-        <v>0.07077603440906459</v>
+        <v>0.07116572597273459</v>
       </c>
       <c r="J2">
-        <v>0.07819295295152685</v>
+        <v>0.07977938953593823</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>21.605737</v>
+        <v>18.10884</v>
       </c>
       <c r="N2">
-        <v>64.817211</v>
+        <v>54.32652</v>
       </c>
       <c r="O2">
-        <v>0.04481006619585007</v>
+        <v>0.02835750805894763</v>
       </c>
       <c r="P2">
-        <v>0.04512976179082277</v>
+        <v>0.02862140385105863</v>
       </c>
       <c r="Q2">
-        <v>324.8687228228251</v>
+        <v>337.35778366452</v>
       </c>
       <c r="R2">
-        <v>2923.818505405425</v>
+        <v>3036.22005298068</v>
       </c>
       <c r="S2">
-        <v>0.003171478786949946</v>
+        <v>0.00201808264779268</v>
       </c>
       <c r="T2">
-        <v>0.003528829340423419</v>
+        <v>0.002283398126899009</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>15.036225</v>
+        <v>18.629453</v>
       </c>
       <c r="H3">
-        <v>45.10867500000001</v>
+        <v>55.888359</v>
       </c>
       <c r="I3">
-        <v>0.07077603440906459</v>
+        <v>0.07116572597273459</v>
       </c>
       <c r="J3">
-        <v>0.07819295295152685</v>
+        <v>0.07977938953593823</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -626,22 +626,22 @@
         <v>1.421584</v>
       </c>
       <c r="O3">
-        <v>0.0009827833095589584</v>
+        <v>0.0007420423715060531</v>
       </c>
       <c r="P3">
-        <v>0.0009897949371139249</v>
+        <v>0.0007489478393278889</v>
       </c>
       <c r="Q3">
-        <v>7.125085626800001</v>
+        <v>8.827777437850667</v>
       </c>
       <c r="R3">
-        <v>64.12577064120001</v>
+        <v>79.44999694065599</v>
       </c>
       <c r="S3">
-        <v>6.955750533399921E-05</v>
+        <v>5.280798407075789E-05</v>
       </c>
       <c r="T3">
-        <v>7.739498894940861E-05</v>
+        <v>5.975060141583893E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>15.036225</v>
+        <v>18.629453</v>
       </c>
       <c r="H4">
-        <v>45.10867500000001</v>
+        <v>55.888359</v>
       </c>
       <c r="I4">
-        <v>0.07077603440906459</v>
+        <v>0.07116572597273459</v>
       </c>
       <c r="J4">
-        <v>0.07819295295152685</v>
+        <v>0.07977938953593823</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>229.146642</v>
+        <v>305.722738</v>
       </c>
       <c r="N4">
-        <v>687.439926</v>
+        <v>917.168214</v>
       </c>
       <c r="O4">
-        <v>0.4752476713280717</v>
+        <v>0.4787460161246407</v>
       </c>
       <c r="P4">
-        <v>0.4786383065121521</v>
+        <v>0.4832012404300546</v>
       </c>
       <c r="Q4">
-        <v>3445.500467106451</v>
+        <v>5695.447378602315</v>
       </c>
       <c r="R4">
-        <v>31009.50420395805</v>
+        <v>51259.02640742083</v>
       </c>
       <c r="S4">
-        <v>0.03363614553874342</v>
+        <v>0.03407030779406455</v>
       </c>
       <c r="T4">
-        <v>0.03742614258190319</v>
+        <v>0.03854949998451787</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>15.036225</v>
+        <v>18.629453</v>
       </c>
       <c r="H5">
-        <v>45.10867500000001</v>
+        <v>55.888359</v>
       </c>
       <c r="I5">
-        <v>0.07077603440906459</v>
+        <v>0.07116572597273459</v>
       </c>
       <c r="J5">
-        <v>0.07819295295152685</v>
+        <v>0.07977938953593823</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.2468025</v>
+        <v>17.6638495</v>
       </c>
       <c r="N5">
-        <v>20.493605</v>
+        <v>35.327699</v>
       </c>
       <c r="O5">
-        <v>0.02125175819370577</v>
+        <v>0.02766067592116823</v>
       </c>
       <c r="P5">
-        <v>0.01426891866552565</v>
+        <v>0.01861205798213543</v>
       </c>
       <c r="Q5">
-        <v>154.0732279205625</v>
+        <v>329.0678540593235</v>
       </c>
       <c r="R5">
-        <v>924.439367523375</v>
+        <v>1974.407124355941</v>
       </c>
       <c r="S5">
-        <v>0.00150411516917084</v>
+        <v>0.001968492082826476</v>
       </c>
       <c r="T5">
-        <v>0.00111572888588261</v>
+        <v>0.001484858623822251</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>15.036225</v>
+        <v>18.629453</v>
       </c>
       <c r="H6">
-        <v>45.10867500000001</v>
+        <v>55.888359</v>
       </c>
       <c r="I6">
-        <v>0.07077603440906459</v>
+        <v>0.07116572597273459</v>
       </c>
       <c r="J6">
-        <v>0.07819295295152685</v>
+        <v>0.07977938953593823</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>220.6895343333333</v>
+        <v>296.6213786666667</v>
       </c>
       <c r="N6">
-        <v>662.0686029999999</v>
+        <v>889.864136</v>
       </c>
       <c r="O6">
-        <v>0.4577077209728135</v>
+        <v>0.4644937575237376</v>
       </c>
       <c r="P6">
-        <v>0.4609732180943856</v>
+        <v>0.4688163498974233</v>
       </c>
       <c r="Q6">
-        <v>3318.337493381225</v>
+        <v>5525.894032665869</v>
       </c>
       <c r="R6">
-        <v>29865.03744043102</v>
+        <v>49733.04629399283</v>
       </c>
       <c r="S6">
-        <v>0.03239473740886638</v>
+        <v>0.03305603546398013</v>
       </c>
       <c r="T6">
-        <v>0.03604485715436822</v>
+        <v>0.03740188219928325</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>218.277179</v>
       </c>
       <c r="I7">
-        <v>0.3424794262216203</v>
+        <v>0.2779443552245922</v>
       </c>
       <c r="J7">
-        <v>0.378369286793261</v>
+        <v>0.3115858186182692</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>21.605737</v>
+        <v>18.10884</v>
       </c>
       <c r="N7">
-        <v>64.817211</v>
+        <v>54.32652</v>
       </c>
       <c r="O7">
-        <v>0.04481006619585007</v>
+        <v>0.02835750805894763</v>
       </c>
       <c r="P7">
-        <v>0.04512976179082277</v>
+        <v>0.02862140385105863</v>
       </c>
       <c r="Q7">
-        <v>1572.013107525308</v>
+        <v>1317.58217005412</v>
       </c>
       <c r="R7">
-        <v>14148.11796772777</v>
+        <v>11858.23953048708</v>
       </c>
       <c r="S7">
-        <v>0.01534652575970756</v>
+        <v>0.007881809293220377</v>
       </c>
       <c r="T7">
-        <v>0.01707571578194338</v>
+        <v>0.008918023548936187</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>218.277179</v>
       </c>
       <c r="I8">
-        <v>0.3424794262216203</v>
+        <v>0.2779443552245922</v>
       </c>
       <c r="J8">
-        <v>0.378369286793261</v>
+        <v>0.3115858186182692</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -936,10 +936,10 @@
         <v>1.421584</v>
       </c>
       <c r="O8">
-        <v>0.0009827833095589584</v>
+        <v>0.0007420423715060531</v>
       </c>
       <c r="P8">
-        <v>0.0009897949371139249</v>
+        <v>0.0007489478393278889</v>
       </c>
       <c r="Q8">
         <v>34.47770502572622</v>
@@ -948,10 +948,10 @@
         <v>310.299345231536</v>
       </c>
       <c r="S8">
-        <v>0.0003365830639579371</v>
+        <v>0.0002062464884975772</v>
       </c>
       <c r="T8">
-        <v>0.0003745080044273764</v>
+        <v>0.0002333615256193642</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>218.277179</v>
       </c>
       <c r="I9">
-        <v>0.3424794262216203</v>
+        <v>0.2779443552245922</v>
       </c>
       <c r="J9">
-        <v>0.378369286793261</v>
+        <v>0.3115858186182692</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>229.146642</v>
+        <v>305.722738</v>
       </c>
       <c r="N9">
-        <v>687.439926</v>
+        <v>917.168214</v>
       </c>
       <c r="O9">
-        <v>0.4752476713280717</v>
+        <v>0.4787460161246407</v>
       </c>
       <c r="P9">
-        <v>0.4786383065121521</v>
+        <v>0.4832012404300546</v>
       </c>
       <c r="Q9">
-        <v>16672.4941976943</v>
+        <v>22244.0989355987</v>
       </c>
       <c r="R9">
-        <v>150052.4477792488</v>
+        <v>200196.8904203883</v>
       </c>
       <c r="S9">
-        <v>0.1627625497895992</v>
+        <v>0.1330647527681054</v>
       </c>
       <c r="T9">
-        <v>0.1811020346669373</v>
+        <v>0.1505586540567617</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>218.277179</v>
       </c>
       <c r="I10">
-        <v>0.3424794262216203</v>
+        <v>0.2779443552245922</v>
       </c>
       <c r="J10">
-        <v>0.378369286793261</v>
+        <v>0.3115858186182692</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>10.2468025</v>
+        <v>17.6638495</v>
       </c>
       <c r="N10">
-        <v>20.493605</v>
+        <v>35.327699</v>
       </c>
       <c r="O10">
-        <v>0.02125175819370577</v>
+        <v>0.02766067592116823</v>
       </c>
       <c r="P10">
-        <v>0.01426891866552565</v>
+        <v>0.01861205798213543</v>
       </c>
       <c r="Q10">
-        <v>745.5477144900491</v>
+        <v>1285.20507971352</v>
       </c>
       <c r="R10">
-        <v>4473.286286940294</v>
+        <v>7711.23047828112</v>
       </c>
       <c r="S10">
-        <v>0.00727828995238097</v>
+        <v>0.007688128733985507</v>
       </c>
       <c r="T10">
-        <v>0.005398920578785989</v>
+        <v>0.005799253322534361</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>218.277179</v>
       </c>
       <c r="I11">
-        <v>0.3424794262216203</v>
+        <v>0.2779443552245922</v>
       </c>
       <c r="J11">
-        <v>0.378369286793261</v>
+        <v>0.3115858186182692</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>220.6895343333333</v>
+        <v>296.6213786666667</v>
       </c>
       <c r="N11">
-        <v>662.0686029999999</v>
+        <v>889.864136</v>
       </c>
       <c r="O11">
-        <v>0.4577077209728135</v>
+        <v>0.4644937575237376</v>
       </c>
       <c r="P11">
-        <v>0.4609732180943856</v>
+        <v>0.4688163498974233</v>
       </c>
       <c r="Q11">
-        <v>16057.16299636788</v>
+        <v>21581.89258881693</v>
       </c>
       <c r="R11">
-        <v>144514.4669673109</v>
+        <v>194237.0332993523</v>
       </c>
       <c r="S11">
-        <v>0.1567554776559746</v>
+        <v>0.1291034179407833</v>
       </c>
       <c r="T11">
-        <v>0.174418107761167</v>
+        <v>0.1460765261644176</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>32.47217933333334</v>
+        <v>36.272704</v>
       </c>
       <c r="H12">
-        <v>97.416538</v>
+        <v>108.818112</v>
       </c>
       <c r="I12">
-        <v>0.1528476783124299</v>
+        <v>0.1385640959589159</v>
       </c>
       <c r="J12">
-        <v>0.1688652298595476</v>
+        <v>0.1553354348051864</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>21.605737</v>
+        <v>18.10884</v>
       </c>
       <c r="N12">
-        <v>64.817211</v>
+        <v>54.32652</v>
       </c>
       <c r="O12">
-        <v>0.04481006619585007</v>
+        <v>0.02835750805894763</v>
       </c>
       <c r="P12">
-        <v>0.04512976179082277</v>
+        <v>0.02862140385105863</v>
       </c>
       <c r="Q12">
-        <v>701.5853664928354</v>
+        <v>656.8565931033598</v>
       </c>
       <c r="R12">
-        <v>6314.268298435518</v>
+        <v>5911.70933793024</v>
       </c>
       <c r="S12">
-        <v>0.00684911458306198</v>
+        <v>0.003929332467835751</v>
       </c>
       <c r="T12">
-        <v>0.007620847598313915</v>
+        <v>0.004445918211939031</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>32.47217933333334</v>
+        <v>36.272704</v>
       </c>
       <c r="H13">
-        <v>97.416538</v>
+        <v>108.818112</v>
       </c>
       <c r="I13">
-        <v>0.1528476783124299</v>
+        <v>0.1385640959589159</v>
       </c>
       <c r="J13">
-        <v>0.1688652298595476</v>
+        <v>0.1553354348051864</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1246,22 +1246,22 @@
         <v>1.421584</v>
       </c>
       <c r="O13">
-        <v>0.0009827833095589584</v>
+        <v>0.0007420423715060531</v>
       </c>
       <c r="P13">
-        <v>0.0009897949371139249</v>
+        <v>0.0007489478393278889</v>
       </c>
       <c r="Q13">
-        <v>15.38731019513244</v>
+        <v>17.18823188104533</v>
       </c>
       <c r="R13">
-        <v>138.485791756192</v>
+        <v>154.694086929408</v>
       </c>
       <c r="S13">
-        <v>0.0001502161471502929</v>
+        <v>0.0001028204303709462</v>
       </c>
       <c r="T13">
-        <v>0.0001671419495695594</v>
+        <v>0.0001163381382684025</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>32.47217933333334</v>
+        <v>36.272704</v>
       </c>
       <c r="H14">
-        <v>97.416538</v>
+        <v>108.818112</v>
       </c>
       <c r="I14">
-        <v>0.1528476783124299</v>
+        <v>0.1385640959589159</v>
       </c>
       <c r="J14">
-        <v>0.1688652298595476</v>
+        <v>0.1553354348051864</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>229.146642</v>
+        <v>305.722738</v>
       </c>
       <c r="N14">
-        <v>687.439926</v>
+        <v>917.168214</v>
       </c>
       <c r="O14">
-        <v>0.4752476713280717</v>
+        <v>0.4787460161246407</v>
       </c>
       <c r="P14">
-        <v>0.4786383065121521</v>
+        <v>0.4832012404300546</v>
       </c>
       <c r="Q14">
-        <v>7440.890852655133</v>
+        <v>11089.39038154355</v>
       </c>
       <c r="R14">
-        <v>66968.01767389619</v>
+        <v>99804.51343389197</v>
       </c>
       <c r="S14">
-        <v>0.07264050318588451</v>
+        <v>0.0663370089182434</v>
       </c>
       <c r="T14">
-        <v>0.08082536764875914</v>
+        <v>0.07505827478060798</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>32.47217933333334</v>
+        <v>36.272704</v>
       </c>
       <c r="H15">
-        <v>97.416538</v>
+        <v>108.818112</v>
       </c>
       <c r="I15">
-        <v>0.1528476783124299</v>
+        <v>0.1385640959589159</v>
       </c>
       <c r="J15">
-        <v>0.1688652298595476</v>
+        <v>0.1553354348051864</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>10.2468025</v>
+        <v>17.6638495</v>
       </c>
       <c r="N15">
-        <v>20.493605</v>
+        <v>35.327699</v>
       </c>
       <c r="O15">
-        <v>0.02125175819370577</v>
+        <v>0.02766067592116823</v>
       </c>
       <c r="P15">
-        <v>0.01426891866552565</v>
+        <v>0.01861205798213543</v>
       </c>
       <c r="Q15">
-        <v>332.7360083732484</v>
+        <v>640.7155844140478</v>
       </c>
       <c r="R15">
-        <v>1996.41605023949</v>
+        <v>3844.293506484287</v>
       </c>
       <c r="S15">
-        <v>0.003248281899965085</v>
+        <v>0.003832776552629229</v>
       </c>
       <c r="T15">
-        <v>0.002409524230301178</v>
+        <v>0.002891112119274349</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>32.47217933333334</v>
+        <v>36.272704</v>
       </c>
       <c r="H16">
-        <v>97.416538</v>
+        <v>108.818112</v>
       </c>
       <c r="I16">
-        <v>0.1528476783124299</v>
+        <v>0.1385640959589159</v>
       </c>
       <c r="J16">
-        <v>0.1688652298595476</v>
+        <v>0.1553354348051864</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>220.6895343333333</v>
+        <v>296.6213786666667</v>
       </c>
       <c r="N16">
-        <v>662.0686029999999</v>
+        <v>889.864136</v>
       </c>
       <c r="O16">
-        <v>0.4577077209728135</v>
+        <v>0.4644937575237376</v>
       </c>
       <c r="P16">
-        <v>0.4609732180943856</v>
+        <v>0.4688163498974233</v>
       </c>
       <c r="Q16">
-        <v>7166.270135861824</v>
+        <v>10759.25946844791</v>
       </c>
       <c r="R16">
-        <v>64496.43122275641</v>
+        <v>96833.33521603124</v>
       </c>
       <c r="S16">
-        <v>0.06995956249636801</v>
+        <v>0.06436215758983659</v>
       </c>
       <c r="T16">
-        <v>0.07784234843260378</v>
+        <v>0.07282379155509668</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>60.454654</v>
+        <v>84.7905925</v>
       </c>
       <c r="H17">
-        <v>120.909308</v>
+        <v>169.581185</v>
       </c>
       <c r="I17">
-        <v>0.2845621604952103</v>
+        <v>0.3239055956672912</v>
       </c>
       <c r="J17">
-        <v>0.209588418011517</v>
+        <v>0.2420733701642771</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>21.605737</v>
+        <v>18.10884</v>
       </c>
       <c r="N17">
-        <v>64.817211</v>
+        <v>54.32652</v>
       </c>
       <c r="O17">
-        <v>0.04481006619585007</v>
+        <v>0.02835750805894763</v>
       </c>
       <c r="P17">
-        <v>0.04512976179082277</v>
+        <v>0.02862140385105863</v>
       </c>
       <c r="Q17">
-        <v>1306.167354749998</v>
+        <v>1535.4592730877</v>
       </c>
       <c r="R17">
-        <v>7837.004128499988</v>
+        <v>9212.7556385262</v>
       </c>
       <c r="S17">
-        <v>0.01275124924862449</v>
+        <v>0.009185155539473444</v>
       </c>
       <c r="T17">
-        <v>0.009458675378975153</v>
+        <v>0.006928479689058582</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>60.454654</v>
+        <v>84.7905925</v>
       </c>
       <c r="H18">
-        <v>120.909308</v>
+        <v>169.581185</v>
       </c>
       <c r="I18">
-        <v>0.2845621604952103</v>
+        <v>0.3239055956672912</v>
       </c>
       <c r="J18">
-        <v>0.209588418011517</v>
+        <v>0.2420733701642771</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -1556,22 +1556,22 @@
         <v>1.421584</v>
       </c>
       <c r="O18">
-        <v>0.0009827833095589584</v>
+        <v>0.0007420423715060531</v>
       </c>
       <c r="P18">
-        <v>0.0009897949371139249</v>
+        <v>0.0007489478393278889</v>
       </c>
       <c r="Q18">
-        <v>28.64712295064533</v>
+        <v>40.17898321617333</v>
       </c>
       <c r="R18">
-        <v>171.882737703872</v>
+        <v>241.07389929704</v>
       </c>
       <c r="S18">
-        <v>0.0002796629418667303</v>
+        <v>0.0002403516763530375</v>
       </c>
       <c r="T18">
-        <v>0.0002074495550255165</v>
+        <v>0.0001813003275433556</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>60.454654</v>
+        <v>84.7905925</v>
       </c>
       <c r="H19">
-        <v>120.909308</v>
+        <v>169.581185</v>
       </c>
       <c r="I19">
-        <v>0.2845621604952103</v>
+        <v>0.3239055956672912</v>
       </c>
       <c r="J19">
-        <v>0.209588418011517</v>
+        <v>0.2420733701642771</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>229.146642</v>
+        <v>305.722738</v>
       </c>
       <c r="N19">
-        <v>687.439926</v>
+        <v>917.168214</v>
       </c>
       <c r="O19">
-        <v>0.4752476713280717</v>
+        <v>0.4787460161246407</v>
       </c>
       <c r="P19">
-        <v>0.4786383065121521</v>
+        <v>0.4832012404300546</v>
       </c>
       <c r="Q19">
-        <v>13852.98095737187</v>
+        <v>25922.41209574226</v>
       </c>
       <c r="R19">
-        <v>83117.8857442312</v>
+        <v>155534.4725744536</v>
       </c>
       <c r="S19">
-        <v>0.1352375041234337</v>
+        <v>0.1550685135261943</v>
       </c>
       <c r="T19">
-        <v>0.1003170454615935</v>
+        <v>0.1169701527384625</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>60.454654</v>
+        <v>84.7905925</v>
       </c>
       <c r="H20">
-        <v>120.909308</v>
+        <v>169.581185</v>
       </c>
       <c r="I20">
-        <v>0.2845621604952103</v>
+        <v>0.3239055956672912</v>
       </c>
       <c r="J20">
-        <v>0.209588418011517</v>
+        <v>0.2420733701642771</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>10.2468025</v>
+        <v>17.6638495</v>
       </c>
       <c r="N20">
-        <v>20.493605</v>
+        <v>35.327699</v>
       </c>
       <c r="O20">
-        <v>0.02125175819370577</v>
+        <v>0.02766067592116823</v>
       </c>
       <c r="P20">
-        <v>0.01426891866552565</v>
+        <v>0.01861205798213543</v>
       </c>
       <c r="Q20">
-        <v>619.4668997438349</v>
+        <v>1497.728264935829</v>
       </c>
       <c r="R20">
-        <v>2477.86759897534</v>
+        <v>5990.913059743314</v>
       </c>
       <c r="S20">
-        <v>0.006047446225922702</v>
+        <v>0.008959447710805894</v>
       </c>
       <c r="T20">
-        <v>0.002990600089842527</v>
+        <v>0.004505483601428458</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>60.454654</v>
+        <v>84.7905925</v>
       </c>
       <c r="H21">
-        <v>120.909308</v>
+        <v>169.581185</v>
       </c>
       <c r="I21">
-        <v>0.2845621604952103</v>
+        <v>0.3239055956672912</v>
       </c>
       <c r="J21">
-        <v>0.209588418011517</v>
+        <v>0.2420733701642771</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>220.6895343333333</v>
+        <v>296.6213786666667</v>
       </c>
       <c r="N21">
-        <v>662.0686029999999</v>
+        <v>889.864136</v>
       </c>
       <c r="O21">
-        <v>0.4577077209728135</v>
+        <v>0.4644937575237376</v>
       </c>
       <c r="P21">
-        <v>0.4609732180943856</v>
+        <v>0.4688163498974233</v>
       </c>
       <c r="Q21">
-        <v>13341.70943954278</v>
+        <v>25150.70244531353</v>
       </c>
       <c r="R21">
-        <v>80050.25663725671</v>
+        <v>150904.2146718812</v>
       </c>
       <c r="S21">
-        <v>0.1302462979553627</v>
+        <v>0.1504521272144645</v>
       </c>
       <c r="T21">
-        <v>0.09661464752608029</v>
+        <v>0.1134879538077842</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>31.72585433333333</v>
+        <v>49.32382433333333</v>
       </c>
       <c r="H22">
-        <v>95.17756299999999</v>
+        <v>147.971473</v>
       </c>
       <c r="I22">
-        <v>0.1493347005616749</v>
+        <v>0.1884202271764661</v>
       </c>
       <c r="J22">
-        <v>0.1649841123841474</v>
+        <v>0.2112259868763291</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>21.605737</v>
+        <v>18.10884</v>
       </c>
       <c r="N22">
-        <v>64.817211</v>
+        <v>54.32652</v>
       </c>
       <c r="O22">
-        <v>0.04481006619585007</v>
+        <v>0.02835750805894763</v>
       </c>
       <c r="P22">
-        <v>0.04512976179082277</v>
+        <v>0.02862140385105863</v>
       </c>
       <c r="Q22">
-        <v>685.4604648263103</v>
+        <v>893.1972430404398</v>
       </c>
       <c r="R22">
-        <v>6169.144183436792</v>
+        <v>8038.775187363959</v>
       </c>
       <c r="S22">
-        <v>0.006691697817506101</v>
+        <v>0.005343128110625381</v>
       </c>
       <c r="T22">
-        <v>0.007445693691166906</v>
+        <v>0.006045584274225825</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>31.72585433333333</v>
+        <v>49.32382433333333</v>
       </c>
       <c r="H23">
-        <v>95.17756299999999</v>
+        <v>147.971473</v>
       </c>
       <c r="I23">
-        <v>0.1493347005616749</v>
+        <v>0.1884202271764661</v>
       </c>
       <c r="J23">
-        <v>0.1649841123841474</v>
+        <v>0.2112259868763291</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -1866,22 +1866,22 @@
         <v>1.421584</v>
       </c>
       <c r="O23">
-        <v>0.0009827833095589584</v>
+        <v>0.0007420423715060531</v>
       </c>
       <c r="P23">
-        <v>0.0009897949371139249</v>
+        <v>0.0007489478393278889</v>
       </c>
       <c r="Q23">
-        <v>15.03365563553244</v>
+        <v>23.37265316369244</v>
       </c>
       <c r="R23">
-        <v>135.302900719792</v>
+        <v>210.353878473232</v>
       </c>
       <c r="S23">
-        <v>0.0001467636512499989</v>
+        <v>0.0001398157922137342</v>
       </c>
       <c r="T23">
-        <v>0.0001633004391420639</v>
+        <v>0.0001581972464809277</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>31.72585433333333</v>
+        <v>49.32382433333333</v>
       </c>
       <c r="H24">
-        <v>95.17756299999999</v>
+        <v>147.971473</v>
       </c>
       <c r="I24">
-        <v>0.1493347005616749</v>
+        <v>0.1884202271764661</v>
       </c>
       <c r="J24">
-        <v>0.1649841123841474</v>
+        <v>0.2112259868763291</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>229.146642</v>
+        <v>305.722738</v>
       </c>
       <c r="N24">
-        <v>687.439926</v>
+        <v>917.168214</v>
       </c>
       <c r="O24">
-        <v>0.4752476713280717</v>
+        <v>0.4787460161246407</v>
       </c>
       <c r="P24">
-        <v>0.4786383065121521</v>
+        <v>0.4832012404300546</v>
       </c>
       <c r="Q24">
-        <v>7269.872985064482</v>
+        <v>15079.41462381769</v>
       </c>
       <c r="R24">
-        <v>65428.85686558033</v>
+        <v>135714.7316143592</v>
       </c>
       <c r="S24">
-        <v>0.07097096869041089</v>
+        <v>0.09020543311803289</v>
       </c>
       <c r="T24">
-        <v>0.0789677161529589</v>
+        <v>0.1020646588697046</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>31.72585433333333</v>
+        <v>49.32382433333333</v>
       </c>
       <c r="H25">
-        <v>95.17756299999999</v>
+        <v>147.971473</v>
       </c>
       <c r="I25">
-        <v>0.1493347005616749</v>
+        <v>0.1884202271764661</v>
       </c>
       <c r="J25">
-        <v>0.1649841123841474</v>
+        <v>0.2112259868763291</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>10.2468025</v>
+        <v>17.6638495</v>
       </c>
       <c r="N25">
-        <v>20.493605</v>
+        <v>35.327699</v>
       </c>
       <c r="O25">
-        <v>0.02125175819370577</v>
+        <v>0.02766067592116823</v>
       </c>
       <c r="P25">
-        <v>0.01426891866552565</v>
+        <v>0.01861205798213543</v>
       </c>
       <c r="Q25">
-        <v>325.0885634974358</v>
+        <v>871.2486097884378</v>
       </c>
       <c r="R25">
-        <v>1950.531380984615</v>
+        <v>5227.491658730626</v>
       </c>
       <c r="S25">
-        <v>0.003173624946266173</v>
+        <v>0.005211830840921124</v>
       </c>
       <c r="T25">
-        <v>0.002354144880713342</v>
+        <v>0.003931350315076015</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>31.72585433333333</v>
+        <v>49.32382433333333</v>
       </c>
       <c r="H26">
-        <v>95.17756299999999</v>
+        <v>147.971473</v>
       </c>
       <c r="I26">
-        <v>0.1493347005616749</v>
+        <v>0.1884202271764661</v>
       </c>
       <c r="J26">
-        <v>0.1649841123841474</v>
+        <v>0.2112259868763291</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>220.6895343333333</v>
+        <v>296.6213786666667</v>
       </c>
       <c r="N26">
-        <v>662.0686029999999</v>
+        <v>889.864136</v>
       </c>
       <c r="O26">
-        <v>0.4577077209728135</v>
+        <v>0.4644937575237376</v>
       </c>
       <c r="P26">
-        <v>0.4609732180943856</v>
+        <v>0.4688163498974233</v>
       </c>
       <c r="Q26">
-        <v>7001.564019150497</v>
+        <v>14630.50077486581</v>
       </c>
       <c r="R26">
-        <v>63014.07617235448</v>
+        <v>131674.5069737923</v>
       </c>
       <c r="S26">
-        <v>0.06835164545624176</v>
+        <v>0.08752001931467299</v>
       </c>
       <c r="T26">
-        <v>0.0760532572201662</v>
+        <v>0.09902619617084163</v>
       </c>
     </row>
   </sheetData>
